--- a/pub/supmat/outcomes.xlsx
+++ b/pub/supmat/outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aschwalbc/Documents/Research/ACF-VN/pub/supmat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A9B906-1AF7-764B-A074-B95CC97C2B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A0E752-3436-B54E-AA3D-71AC1FE35121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25280" windowHeight="23500" xr2:uid="{0EFD0D77-2FBF-8A4A-BAED-2A6690736040}"/>
+    <workbookView xWindow="-1320" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0EFD0D77-2FBF-8A4A-BAED-2A6690736040}"/>
   </bookViews>
   <sheets>
     <sheet name="outputs" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1115,19 +1115,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1307,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,6 +1340,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,22 +1370,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1701,13 +1684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C7E8D8-2962-2D48-B60C-8A1FD8AE37ED}">
-  <dimension ref="B1:N28"/>
+  <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1729,28 +1712,28 @@
   <sheetData>
     <row r="1" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1785,7 +1768,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
         <v>259</v>
       </c>
@@ -1818,7 +1801,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="11" t="s">
         <v>260</v>
       </c>
@@ -1860,7 +1843,7 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1869,7 +1852,7 @@
       <c r="G6" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="7" t="s">
@@ -1878,7 +1861,7 @@
       <c r="J6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="20" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -1895,7 +1878,7 @@
       <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1904,7 +1887,7 @@
       <c r="G7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="20" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -1913,7 +1896,7 @@
       <c r="J7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -1930,7 +1913,7 @@
       <c r="D8" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1939,7 +1922,7 @@
       <c r="G8" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="20" t="s">
         <v>269</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -1948,7 +1931,7 @@
       <c r="J8" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="20" t="s">
         <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -1965,7 +1948,7 @@
       <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1974,7 +1957,7 @@
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -1983,7 +1966,7 @@
       <c r="J9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="20" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="7" t="s">
@@ -2001,7 +1984,7 @@
       <c r="D10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2010,7 +1993,7 @@
       <c r="G10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="20" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -2019,7 +2002,7 @@
       <c r="J10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="20" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -2037,7 +2020,7 @@
       <c r="D11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -2046,7 +2029,7 @@
       <c r="G11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="20" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -2055,7 +2038,7 @@
       <c r="J11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="20" t="s">
         <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -2073,7 +2056,7 @@
       <c r="D12" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="20" t="s">
         <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -2082,7 +2065,7 @@
       <c r="G12" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="20" t="s">
         <v>280</v>
       </c>
       <c r="I12" s="7" t="s">
@@ -2091,7 +2074,7 @@
       <c r="J12" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="20" t="s">
         <v>283</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -2109,7 +2092,7 @@
       <c r="D13" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="20" t="s">
         <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -2118,7 +2101,7 @@
       <c r="G13" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="20" t="s">
         <v>331</v>
       </c>
       <c r="I13" s="7" t="s">
@@ -2127,7 +2110,7 @@
       <c r="J13" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="20" t="s">
         <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -2145,7 +2128,7 @@
       <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -2154,7 +2137,7 @@
       <c r="G14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="20" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -2163,7 +2146,7 @@
       <c r="J14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="20" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
@@ -2181,7 +2164,7 @@
       <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -2190,7 +2173,7 @@
       <c r="G15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="20" t="s">
         <v>31</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -2199,7 +2182,7 @@
       <c r="J15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="20" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
@@ -2217,7 +2200,7 @@
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="20" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -2226,7 +2209,7 @@
       <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -2235,7 +2218,7 @@
       <c r="J16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="20" t="s">
         <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
@@ -2253,7 +2236,7 @@
       <c r="D17" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="20" t="s">
         <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -2262,7 +2245,7 @@
       <c r="G17" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="20" t="s">
         <v>296</v>
       </c>
       <c r="I17" s="7" t="s">
@@ -2271,7 +2254,7 @@
       <c r="J17" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="20" t="s">
         <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
@@ -2289,7 +2272,7 @@
       <c r="D18" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="20" t="s">
         <v>338</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -2298,7 +2281,7 @@
       <c r="G18" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="20" t="s">
         <v>341</v>
       </c>
       <c r="I18" s="7" t="s">
@@ -2307,7 +2290,7 @@
       <c r="J18" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="20" t="s">
         <v>344</v>
       </c>
       <c r="L18" s="7" t="s">
@@ -2324,7 +2307,7 @@
       <c r="D19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="20" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -2333,7 +2316,7 @@
       <c r="G19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="20" t="s">
         <v>74</v>
       </c>
       <c r="I19" s="7" t="s">
@@ -2342,151 +2325,47 @@
       <c r="J19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="20" t="s">
         <v>77</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/pub/supmat/outcomes.xlsx
+++ b/pub/supmat/outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aschwalbc/Documents/Research/ACF-VN/pub/supmat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A0E752-3436-B54E-AA3D-71AC1FE35121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83563112-4887-FD45-9277-072DD20322A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1320" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0EFD0D77-2FBF-8A4A-BAED-2A6690736040}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34920" windowHeight="22500" xr2:uid="{0EFD0D77-2FBF-8A4A-BAED-2A6690736040}"/>
   </bookViews>
   <sheets>
     <sheet name="outputs" sheetId="1" r:id="rId1"/>
@@ -825,12 +825,6 @@
     <t>cxr+xpert</t>
   </si>
   <si>
-    <t>xpert-only</t>
-  </si>
-  <si>
-    <t>cxr-only</t>
-  </si>
-  <si>
     <t>84.3 (65.9-105.7)</t>
   </si>
   <si>
@@ -1075,6 +1069,12 @@
   </si>
   <si>
     <t>3204491152 (2276283397-4292954459)</t>
+  </si>
+  <si>
+    <t>xpert</t>
+  </si>
+  <si>
+    <t>cxr</t>
   </si>
 </sst>
 </file>
@@ -1687,10 +1687,10 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="24" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
@@ -1727,7 +1727,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="26"/>
       <c r="J2" s="24" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
@@ -1838,7 +1838,7 @@
         <v>93</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
@@ -1850,7 +1850,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>14</v>
@@ -1873,7 +1873,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1908,34 +1908,34 @@
         <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="G8" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="J8" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>132</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>49</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>50</v>
@@ -1997,7 +1997,7 @@
         <v>54</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>55</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>58</v>
@@ -2051,34 +2051,34 @@
         <v>196</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="G12" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="J12" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="K12" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="N12" s="2"/>
     </row>
@@ -2087,34 +2087,34 @@
         <v>226</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="G13" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="J13" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="K13" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="N13" s="2"/>
     </row>
@@ -2123,7 +2123,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>23</v>
@@ -2159,7 +2159,7 @@
         <v>184</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>22</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>24</v>
@@ -2228,37 +2228,37 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="G17" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="J17" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="K17" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="N17" s="2"/>
     </row>
@@ -2267,34 +2267,34 @@
         <v>234</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="G18" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="J18" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="K18" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
@@ -2302,7 +2302,7 @@
         <v>251</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>70</v>
@@ -2334,37 +2334,37 @@
     </row>
     <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="F20" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="H20" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="I20" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="K20" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="L20" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2385,8 +2385,8 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2513,21 +2513,21 @@
         <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" t="s">
         <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2755,16 +2755,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
         <v>289</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D24" t="s">
-        <v>291</v>
       </c>
       <c r="E24" t="s">
         <v>113</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
         <v>100</v>
@@ -3335,16 +3335,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" t="s">
         <v>303</v>
-      </c>
-      <c r="B62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" t="s">
-        <v>304</v>
-      </c>
-      <c r="D62" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
